--- a/meta/docs/meta_planning.xlsx
+++ b/meta/docs/meta_planning.xlsx
@@ -1606,10 +1606,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1695,6 +1695,24 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
+        <f aca="false">1000000000000/1000000</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
+        <f aca="false">D30/3600</f>
+        <v>277.777777777778</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="n">
+        <f aca="false">D31/24</f>
+        <v>11.5740740740741</v>
       </c>
     </row>
   </sheetData>
